--- a/indicadores/tablas/pob/430104.xlsx
+++ b/indicadores/tablas/pob/430104.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
   </si>
   <si>
     <t xml:space="preserve"/>
@@ -456,7 +459,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -624,6 +627,14 @@
       </c>
       <c r="B21" t="n">
         <v>6.8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="n">
+        <v>6.2</v>
       </c>
     </row>
   </sheetData>
@@ -638,70 +649,70 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/indicadores/tablas/pob/430104.xlsx
+++ b/indicadores/tablas/pob/430104.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Ficha técnica" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -21,121 +21,130 @@
     <t xml:space="preserve">Valor</t>
   </si>
   <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001</t>
+  </si>
+  <si>
     <t xml:space="preserve">2000</t>
   </si>
   <si>
-    <t xml:space="preserve">2001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">DERECHO</t>
+    <t xml:space="preserve">nomindicador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tasa de mortalidad infantil (0 a 1 año) por 1000 nacidos vivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">derecho</t>
   </si>
   <si>
     <t xml:space="preserve">Salud</t>
   </si>
   <si>
-    <t xml:space="preserve">CONINDICADOR</t>
+    <t xml:space="preserve">conindicador</t>
   </si>
   <si>
     <t xml:space="preserve">Mortalidad Infantil</t>
   </si>
   <si>
-    <t xml:space="preserve">NOMINDICADOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasa de mortalidad infantil (0 a 1 año) por 1000 nacidos vivos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEFINICIÓN</t>
+    <t xml:space="preserve">tipoind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resultados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">definicion</t>
   </si>
   <si>
     <t xml:space="preserve">El indicador mide la cantidad anual de defunciones en menores de un año cada 1000 nacidos vivos.</t>
   </si>
   <si>
-    <t xml:space="preserve">CÁLCULO</t>
+    <t xml:space="preserve">calculo</t>
   </si>
   <si>
     <t xml:space="preserve">Para cada año calcular: (Número de defunciones en menores de un año durante el año acaecido / Número total de nacidos vivos en el año acaecido)*1000</t>
   </si>
   <si>
-    <t xml:space="preserve">TIPOIND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resultados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CITA</t>
+    <t xml:space="preserve">observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cita</t>
   </si>
   <si>
     <t xml:space="preserve">UMAD con base en Estadísticas Vitales - MSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirador DESCA - UMAD/FCS – INDDHH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -454,12 +463,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -474,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>14.1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +491,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>13.9</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="4">
@@ -490,7 +499,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>13.7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="5">
@@ -498,7 +507,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>15.1</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="6">
@@ -506,7 +515,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>13.2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -514,7 +523,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>12.7</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="8">
@@ -522,7 +531,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>10.6</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="9">
@@ -530,7 +539,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>12.1</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="10">
@@ -538,7 +547,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>10.6</v>
+        <v>9.3</v>
       </c>
     </row>
     <row r="11">
@@ -546,7 +555,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -562,7 +571,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="14">
@@ -570,7 +579,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>9.3</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="15">
@@ -578,7 +587,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>8.9</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="16">
@@ -586,7 +595,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>7.8</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="17">
@@ -594,7 +603,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>7.5</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="18">
@@ -602,7 +611,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>8</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="19">
@@ -610,7 +619,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>6.5</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +627,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>6.8</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="21">
@@ -626,7 +635,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>6.8</v>
+        <v>13.9</v>
       </c>
     </row>
     <row r="22">
@@ -634,7 +643,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>6.2</v>
+        <v>14.1</v>
       </c>
     </row>
   </sheetData>
@@ -644,12 +653,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -713,6 +722,22 @@
       </c>
       <c r="B8" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/indicadores/tablas/pob/430104.xlsx
+++ b/indicadores/tablas/pob/430104.xlsx
@@ -13,12 +13,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
   <si>
     <t xml:space="preserve">Valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
   </si>
   <si>
     <t xml:space="preserve">2020</t>
@@ -483,7 +486,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="3">
@@ -491,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="4">
@@ -507,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="6">
@@ -515,7 +518,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +526,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -531,7 +534,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="9">
@@ -539,7 +542,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>8.9</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="10">
@@ -547,7 +550,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>9.3</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="11">
@@ -555,7 +558,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>9.3</v>
       </c>
     </row>
     <row r="12">
@@ -563,7 +566,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -571,7 +574,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>9.6</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="14">
@@ -579,7 +582,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>10.6</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="15">
@@ -587,7 +590,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>12.1</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="16">
@@ -595,7 +598,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>10.6</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="17">
@@ -603,7 +606,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>12.7</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="18">
@@ -611,7 +614,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>13.2</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="19">
@@ -619,7 +622,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>15.1</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +630,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>13.7</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="21">
@@ -635,7 +638,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="22">
@@ -643,6 +646,14 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="n">
         <v>14.1</v>
       </c>
     </row>
@@ -662,82 +673,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/indicadores/tablas/pob/430104.xlsx
+++ b/indicadores/tablas/pob/430104.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -21,6 +21,15 @@
     <t xml:space="preserve">Valor</t>
   </si>
   <si>
+    <t xml:space="preserve">2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021</t>
   </si>
   <si>
@@ -87,9 +96,6 @@
     <t xml:space="preserve">2000</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -133,6 +139,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sin observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actualizacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julio 2025</t>
   </si>
   <si>
     <t xml:space="preserve">cita</t>
@@ -486,7 +498,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="3">
@@ -494,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
     </row>
     <row r="4">
@@ -502,7 +514,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="5">
@@ -510,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="6">
@@ -518,7 +530,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="7">
@@ -526,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="8">
@@ -534,7 +546,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>7.5</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="9">
@@ -542,7 +554,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="10">
@@ -550,7 +562,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>8.9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -558,7 +570,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>9.3</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="12">
@@ -566,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="13">
@@ -574,7 +586,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>7.7</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="14">
@@ -582,7 +594,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>9.6</v>
+        <v>9.3</v>
       </c>
     </row>
     <row r="15">
@@ -590,7 +602,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>10.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -598,7 +610,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>12.1</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="17">
@@ -606,7 +618,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>10.6</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="18">
@@ -614,7 +626,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>12.7</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="19">
@@ -622,7 +634,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>13.2</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="20">
@@ -630,7 +642,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>15.1</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="21">
@@ -638,7 +650,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>13.7</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="22">
@@ -646,7 +658,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>13.9</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="23">
@@ -654,6 +666,30 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="n">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="n">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="n">
         <v>14.1</v>
       </c>
     </row>
@@ -673,82 +709,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
